--- a/docs/normalizacion_tablas.xlsx
+++ b/docs/normalizacion_tablas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERSONAL\Documents\GitHub - Projects\Doc-UP-AlejandroJaimes\BDI-GB-ZOO\MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERSONAL\Documents\GitHub - Projects\Doc-UP-AlejandroJaimes\BDI-GB-ZOO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BC8D4-37AC-4B89-8089-0A24F3B119CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6E015-9C28-4216-BAD8-1E9436C9B99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalizacion" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="61">
   <si>
     <t>Base de Datos Zoologico</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
   </si>
 </sst>
 </file>
@@ -895,7 +901,7 @@
   <dimension ref="B1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+      <selection activeCell="F4" sqref="F4:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -904,6 +910,7 @@
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" customWidth="1"/>
     <col min="6" max="6" width="17.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11.3984375" customWidth="1"/>
     <col min="10" max="10" width="19.69921875" customWidth="1"/>
     <col min="12" max="12" width="11.59765625" customWidth="1"/>
@@ -1160,13 +1167,13 @@
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1197,6 +1204,15 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>35</v>
@@ -1238,7 +1254,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F4" sqref="F4:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -1505,13 +1521,13 @@
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1542,6 +1558,15 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>35</v>
@@ -1582,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1A4EC5-F6CD-4C92-8F27-92D78800539F}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="123" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="C13" zoomScale="123" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -1658,11 +1683,11 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="J6" s="22" t="s">
         <v>10</v>
       </c>
@@ -1877,13 +1902,13 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -1914,6 +1939,15 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>35</v>
@@ -2185,13 +2219,13 @@
       <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="F22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="7" t="s">
@@ -2223,6 +2257,15 @@
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="N23" s="2" t="s">
         <v>35</v>
       </c>
@@ -2243,11 +2286,6 @@
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
       <c r="J24" s="22" t="s">
         <v>47</v>
       </c>
@@ -2255,15 +2293,6 @@
       <c r="L24" s="24"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2280,15 +2309,6 @@
       <c r="P25" s="24"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
       </c>
@@ -2309,15 +2329,6 @@
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="F27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J27" s="2" t="s">
         <v>55</v>
       </c>
@@ -2357,7 +2368,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="29" spans="2:20">
+      <c r="F29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+    </row>
     <row r="30" spans="2:20">
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" s="22" t="s">
         <v>49</v>
       </c>
@@ -2370,6 +2397,15 @@
       <c r="P30" s="24"/>
     </row>
     <row r="31" spans="2:20">
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J31" s="1" t="s">
         <v>13</v>
       </c>
@@ -2390,6 +2426,15 @@
       </c>
     </row>
     <row r="32" spans="2:20">
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
       </c>
@@ -2453,6 +2498,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J24:L24"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="J30:L30"/>
@@ -2469,8 +2516,6 @@
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2480,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B460EA2-99DC-4461-96FC-6AD0BADF1806}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -2777,14 +2822,14 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>44</v>
@@ -2815,6 +2860,15 @@
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="N12" s="11" t="s">
         <v>35</v>
       </c>
@@ -2835,11 +2889,6 @@
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
       <c r="J13" s="22" t="s">
         <v>47</v>
       </c>
@@ -2847,15 +2896,6 @@
       <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2872,15 +2912,6 @@
       <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2901,15 +2932,6 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2930,6 +2952,11 @@
       </c>
     </row>
     <row r="17" spans="2:24">
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
       <c r="N17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2941,6 +2968,15 @@
       </c>
     </row>
     <row r="18" spans="2:24">
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="22" t="s">
         <v>49</v>
       </c>
@@ -2948,6 +2984,15 @@
       <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:24">
+      <c r="F19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2964,6 +3009,15 @@
       <c r="P19" s="24"/>
     </row>
     <row r="20" spans="2:24">
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>16</v>
       </c>
@@ -3353,11 +3407,6 @@
       <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
       <c r="J33" s="22" t="s">
         <v>47</v>
       </c>
@@ -3370,15 +3419,6 @@
       <c r="P33" s="24"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="F34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J34" s="1" t="s">
         <v>13</v>
       </c>
@@ -3399,15 +3439,6 @@
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
@@ -3428,15 +3459,6 @@
       </c>
     </row>
     <row r="36" spans="2:16">
-      <c r="F36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3456,7 +3478,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="37" spans="2:16">
+      <c r="F37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
     <row r="38" spans="2:16">
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J38" s="22" t="s">
         <v>49</v>
       </c>
@@ -3469,6 +3507,15 @@
       <c r="P38" s="24"/>
     </row>
     <row r="39" spans="2:16">
+      <c r="F39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3489,6 +3536,15 @@
       </c>
     </row>
     <row r="40" spans="2:16">
+      <c r="F40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J40" s="2" t="s">
         <v>16</v>
       </c>
@@ -3530,6 +3586,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="B24:U24"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B4:U4"/>
@@ -3538,22 +3610,6 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="R6:T6"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="B24:U24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/normalizacion_tablas.xlsx
+++ b/docs/normalizacion_tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERSONAL\Documents\GitHub - Projects\Doc-UP-AlejandroJaimes\BDI-GB-ZOO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6E015-9C28-4216-BAD8-1E9436C9B99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344971C-90BD-4479-A62A-4ED9681A31F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalizacion" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="67">
   <si>
     <t>Base de Datos Zoologico</t>
   </si>
@@ -221,13 +221,31 @@
   </si>
   <si>
     <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>CostoBase</t>
+  </si>
+  <si>
+    <t>TipoVisitante</t>
+  </si>
+  <si>
+    <t>TIPO_VISITANTES</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>IDTipoVisitantes</t>
+  </si>
+  <si>
+    <t>CostoFinal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +276,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -392,7 +412,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -426,6 +445,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -819,70 +840,70 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="2" spans="3:9" ht="18.600000000000001">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="13" t="str">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="12" t="str">
         <f>HYPERLINK("[FormasNormales.xlsx]1FN!B1","1FN")</f>
         <v>1FN</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="12" t="str">
         <f>HYPERLINK("[FormasNormales.xlsx]2FN!B1","2FN")</f>
         <v>2FN</v>
       </c>
-      <c r="H5" s="13" t="str">
+      <c r="H5" s="12" t="str">
         <f>HYPERLINK("[FormasNormales.xlsx]3FN!B1","3FN")</f>
         <v>3FN</v>
       </c>
-      <c r="I5" s="13" t="str">
+      <c r="I5" s="12" t="str">
         <f>HYPERLINK("[FormasNormales.xlsx]4FN!B1","4FN")</f>
         <v>4FN</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -900,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA81C315-C728-4E3C-8771-B82AD9D270EA}">
   <dimension ref="B1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -915,59 +936,64 @@
     <col min="10" max="10" width="19.69921875" customWidth="1"/>
     <col min="12" max="12" width="11.59765625" customWidth="1"/>
     <col min="16" max="16" width="12.09765625" customWidth="1"/>
+    <col min="19" max="19" width="13.796875" customWidth="1"/>
+    <col min="20" max="20" width="15.69921875" customWidth="1"/>
     <col min="21" max="21" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="2:21">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="J4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="N4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="S4" s="20" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="S4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="1" t="s">
@@ -1148,13 +1174,13 @@
         <v>21</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:21">
@@ -1186,10 +1212,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>21</v>
@@ -1215,13 +1241,13 @@
         <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:21">
@@ -1232,6 +1258,15 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1246,15 +1281,16 @@
     <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D3B809-3E7B-4F7C-A7F4-3DC96BDFA24D}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -1271,57 +1307,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="J4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="N4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="S4" s="20" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="S4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="1" t="s">
@@ -1502,13 +1538,13 @@
         <v>21</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1540,10 +1576,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>21</v>
@@ -1569,13 +1605,13 @@
         <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1588,6 +1624,18 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="N11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="T12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1607,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1A4EC5-F6CD-4C92-8F27-92D78800539F}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="123" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:H23"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -1622,87 +1670,88 @@
     <col min="11" max="12" width="11.59765625" customWidth="1"/>
     <col min="14" max="14" width="13.09765625" customWidth="1"/>
     <col min="16" max="16" width="12.09765625" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.09765625" customWidth="1"/>
     <col min="19" max="19" width="11.296875" customWidth="1"/>
+    <col min="20" max="20" width="10.796875" customWidth="1"/>
     <col min="21" max="21" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="F6" s="20" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="F6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="22" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="J6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="N6" s="22" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="N6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="S6" s="22" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="R6" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="S6" s="22"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="24"/>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
@@ -1741,13 +1790,13 @@
       <c r="P7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1788,13 +1837,13 @@
       <c r="P8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="R8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="S8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1835,13 +1884,13 @@
       <c r="P9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="R9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="S9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1882,14 +1931,14 @@
       <c r="P10" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="R10" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="S10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1920,11 +1969,11 @@
       <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>33</v>
+      <c r="N11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>21</v>
@@ -1949,14 +1998,14 @@
       <c r="H12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>35</v>
+      <c r="N12" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1969,57 +2018,66 @@
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="F17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="J17" s="22" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="J17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="N17" s="22" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="R17" s="22" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="R17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="23"/>
-      <c r="T17" s="24"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="1" t="s">
@@ -2190,23 +2248,23 @@
       <c r="L21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>42</v>
+      <c r="N21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:20">
@@ -2238,10 +2296,10 @@
         <v>21</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>21</v>
@@ -2266,14 +2324,14 @@
       <c r="H23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>35</v>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:20">
@@ -2286,11 +2344,25 @@
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="N24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="22"/>
+      <c r="T24" s="23"/>
     </row>
     <row r="25" spans="2:20">
       <c r="J25" s="1" t="s">
@@ -2302,11 +2374,15 @@
       <c r="L25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
+      <c r="R25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="2:20">
       <c r="J26" s="2" t="s">
@@ -2318,14 +2394,19 @@
       <c r="L26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>15</v>
+      <c r="N26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="R26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:20">
@@ -2338,14 +2419,23 @@
       <c r="L27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>18</v>
+      <c r="N27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:20">
@@ -2359,12 +2449,21 @@
         <v>21</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2374,6 +2473,15 @@
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
+      <c r="N29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="2:20">
       <c r="F30" s="1" t="s">
@@ -2385,16 +2493,11 @@
       <c r="H30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="N30" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="2:20">
       <c r="F31" s="2" t="s">
@@ -2415,15 +2518,11 @@
       <c r="L31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="N31" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" spans="2:20">
       <c r="F32" s="2" t="s">
@@ -2444,14 +2543,14 @@
       <c r="L32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>18</v>
+      <c r="N32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:16">
@@ -2465,13 +2564,13 @@
         <v>21</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:16">
@@ -2482,6 +2581,15 @@
         <v>20</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2497,7 +2605,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R24:T24"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="A1:H1"/>
@@ -2509,13 +2622,9 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="S6:U6"/>
     <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2523,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B460EA2-99DC-4461-96FC-6AD0BADF1806}">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -2539,90 +2648,92 @@
     <col min="10" max="10" width="19.69921875" customWidth="1"/>
     <col min="12" max="12" width="11.59765625" customWidth="1"/>
     <col min="14" max="14" width="13.09765625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="12.09765625" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="11.296875" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="15.09765625" customWidth="1"/>
     <col min="22" max="23" width="10.69921875" customWidth="1"/>
     <col min="24" max="24" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="F6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="J6" s="22" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="J6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="N6" s="22" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="N6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="R6" s="22" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="R6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="24"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
@@ -2793,23 +2904,23 @@
       <c r="L10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>42</v>
+      <c r="N10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2841,13 +2952,13 @@
         <v>30</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2869,14 +2980,14 @@
       <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>35</v>
+      <c r="N12" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2889,11 +3000,25 @@
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
     </row>
     <row r="14" spans="1:21">
       <c r="J14" s="1" t="s">
@@ -2905,11 +3030,15 @@
       <c r="L14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
+      <c r="R14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="J15" s="2" t="s">
@@ -2921,14 +3050,19 @@
       <c r="L15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>15</v>
+      <c r="N15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
+      <c r="R15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2941,14 +3075,23 @@
       <c r="L16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>18</v>
+      <c r="N16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:24">
@@ -2958,12 +3101,21 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
       <c r="N17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2977,11 +3129,20 @@
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="2:24">
       <c r="F19" s="2" t="s">
@@ -3002,11 +3163,6 @@
       <c r="L19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
     </row>
     <row r="20" spans="2:24">
       <c r="F20" s="2" t="s">
@@ -3027,15 +3183,11 @@
       <c r="L20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="N20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="2:24">
       <c r="J21" s="2" t="s">
@@ -3047,82 +3199,93 @@
       <c r="L21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>18</v>
+      <c r="N21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:24">
       <c r="N22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="N23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
     </row>
     <row r="26" spans="2:24">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="F26" s="22" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="F26" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="J26" s="22" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="J26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="N26" s="22" t="s">
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="N26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-      <c r="R26" s="22" t="s">
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="R26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="S26" s="23"/>
-      <c r="T26" s="24"/>
-      <c r="V26" s="22" t="s">
+      <c r="S26" s="22"/>
+      <c r="T26" s="23"/>
+      <c r="V26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="1" t="s">
@@ -3320,14 +3483,14 @@
       <c r="L30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>42</v>
+      <c r="N30" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>54</v>
@@ -3339,13 +3502,13 @@
         <v>30</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:24">
@@ -3377,13 +3540,22 @@
         <v>30</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:24">
@@ -3396,8 +3568,26 @@
       <c r="D32" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="N32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
@@ -3407,58 +3597,72 @@
       <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="N33" s="22" t="s">
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="N33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="J34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="J35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-    </row>
-    <row r="34" spans="2:16">
-      <c r="J34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16">
-      <c r="J35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+      <c r="V35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
       <c r="J36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3468,24 +3672,51 @@
       <c r="L36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="F37" s="22" t="s">
+      <c r="N36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="F37" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="2:16">
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="N37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24">
       <c r="F38" s="1" t="s">
         <v>13</v>
       </c>
@@ -3495,76 +3726,67 @@
       <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="N38" s="22" t="s">
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="N38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24">
+      <c r="F39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="F40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
-    </row>
-    <row r="39" spans="2:16">
-      <c r="F39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16">
-      <c r="F40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="O40" s="22"/>
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="2:24">
       <c r="J41" s="2" t="s">
         <v>19</v>
       </c>
@@ -3574,34 +3796,42 @@
       <c r="L41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="2" t="s">
+      <c r="N41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="N42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24">
+      <c r="N43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="B24:U24"/>
+  <mergeCells count="26">
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="V33:X33"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B4:U4"/>
@@ -3610,6 +3840,22 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="R6:T6"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B24:U24"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N35:P35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
